--- a/test/RulAnaTestFile/evol_zjm.xlsx
+++ b/test/RulAnaTestFile/evol_zjm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zjm\Documents\GitHub\cloud-virtualization-network-reliabilty\test\RulAnaTestFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\cloud-virtualization-network-reliabilty\test\RulAnaTestFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3353216E-6555-47CD-9751-7FD601470461}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6811B22-EF6F-4C4C-876F-D57B0EF34FB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2460" windowWidth="27040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1763" yWindow="2460" windowWidth="27038" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,27 +27,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
+    <t>EvolFailNodesSet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvolRecoNodesSet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,2.2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>EvolTime</t>
-  </si>
-  <si>
-    <t>EvolFailNodesSet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvolRecoNodesSet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2,2.2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>['S1']</t>
@@ -58,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,12 +67,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -96,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,30 +114,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -457,103 +439,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.69140625" customWidth="1"/>
-    <col min="3" max="3" width="14.3046875" customWidth="1"/>
+    <col min="2" max="2" width="20.703125" customWidth="1"/>
+    <col min="3" max="3" width="17.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/test/RulAnaTestFile/evol_zjm.xlsx
+++ b/test/RulAnaTestFile/evol_zjm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\cloud-virtualization-network-reliabilty\test\RulAnaTestFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\test\RulAnaTestFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6811B22-EF6F-4C4C-876F-D57B0EF34FB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6639A3-FA97-4976-A48A-1BD52C1BCEFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1763" yWindow="2460" windowWidth="27038" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="2460" windowWidth="27045" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>EvolFailNodesSet</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>['S1']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2.2,3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,4]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V1']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -439,19 +451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" activeCellId="1" sqref="C5 E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.703125" customWidth="1"/>
-    <col min="3" max="3" width="17.5859375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -462,7 +474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -473,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -482,6 +494,28 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test/RulAnaTestFile/evol_zjm.xlsx
+++ b/test/RulAnaTestFile/evol_zjm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\test\RulAnaTestFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6639A3-FA97-4976-A48A-1BD52C1BCEFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB3F5B-24A5-449A-BAEB-00C624FBB5C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="2460" windowWidth="27045" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>EvolFailNodesSet</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>['V1']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,6]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['V2']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,19 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" activeCellId="1" sqref="C5 E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="20.76171875" customWidth="1"/>
+    <col min="3" max="3" width="17.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -474,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -485,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -496,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -507,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -516,6 +528,28 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/test/RulAnaTestFile/evol_zjm.xlsx
+++ b/test/RulAnaTestFile/evol_zjm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士生资料\项目\2020.7 NFV项目\项目文档\程序\test\RulAnaTestFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhujuxing\Desktop\cloud-virtualization-network-reliabilty\test\RulAnaTestFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB3F5B-24A5-449A-BAEB-00C624FBB5C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA673DF1-6F28-45BD-A49C-9233C3019806}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="2460" windowWidth="27045" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>EvolFailNodesSet</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>['V1']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[4,5]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,7 +71,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>['V2']</t>
+    <t>['S2']</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +462,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" activeCellId="1" sqref="C6:C7 D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -502,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -513,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -527,15 +523,15 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -543,13 +539,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
